--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A8ACC5-62E1-4191-AF2D-5E89EAE59A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169BC3B6-FEC2-4734-8A43-1CAE9035DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -807,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1266,11 +1266,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1288,12 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1591,6 +1611,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2076,16 +2105,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="11"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2103,21 +2132,21 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="26" t="s">
+      <c r="N5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="16" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2126,32 +2155,32 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -2191,7 +2220,7 @@
   </sheetPr>
   <dimension ref="B1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="H8" zoomScale="143" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -2203,340 +2232,340 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="11"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="32"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="38"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="I6" s="30" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="I6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="Q6" s="30" t="s">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="Q6" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="I8" s="11" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="I8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="25">
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="Q9" s="35" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="Q9" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="25" t="s">
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="I10" s="39" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="I10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="41"/>
-      <c r="Q10" s="35" t="s">
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="39"/>
+      <c r="Q10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="35"/>
-      <c r="T10" s="25">
+      <c r="S10" s="33"/>
+      <c r="T10" s="23">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="44"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="44"/>
-      <c r="Q13" s="30" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="Q13" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="44"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44"/>
-      <c r="Q15" s="23" t="s">
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
+      <c r="Q15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="44"/>
-      <c r="Q16" s="26" t="s">
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
+      <c r="Q16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="42"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="44"/>
-      <c r="Q17" s="26" t="s">
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
+      <c r="Q17" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="44"/>
-      <c r="Q18" s="26" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
+      <c r="Q18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="44"/>
-      <c r="Q19" s="26" t="s">
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="Q19" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44"/>
-      <c r="Q20" s="26" t="s">
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+      <c r="Q20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="42"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2578,605 +2607,605 @@
   </sheetPr>
   <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="96" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="90"/>
-    <col min="2" max="2" width="12.33203125" style="90" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="90" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="90" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" style="90" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="90" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="90" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="90" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="90" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="90" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="90" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="90" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="90" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="90" customWidth="1"/>
-    <col min="16" max="16" width="23.109375" style="90" customWidth="1"/>
-    <col min="17" max="17" width="26" style="90" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="90" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="90" customWidth="1"/>
-    <col min="20" max="22" width="8.88671875" style="90"/>
-    <col min="23" max="23" width="2.21875" style="90" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="2.109375" style="90" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.44140625" style="90" customWidth="1"/>
-    <col min="27" max="27" width="2.21875" style="90" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" style="90" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.21875" style="90" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="90"/>
+    <col min="1" max="1" width="8.88671875" style="88"/>
+    <col min="2" max="2" width="12.33203125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="88" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="88" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="88" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="88" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="88" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="88" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="88" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="88" customWidth="1"/>
+    <col min="16" max="16" width="23.109375" style="88" customWidth="1"/>
+    <col min="17" max="17" width="26" style="88" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="88" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="88" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" style="88"/>
+    <col min="23" max="23" width="2.21875" style="88" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" style="88" customWidth="1"/>
+    <col min="27" max="27" width="2.21875" style="88" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.21875" style="88" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="88"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="F1" s="91" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="F1" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="97"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="95"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
     </row>
     <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103" t="s">
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="99" t="s">
+      <c r="G6" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="99"/>
-      <c r="AC6" s="99"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="97"/>
     </row>
     <row r="7" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="99"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="109" t="s">
+      <c r="H7" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="110" t="s">
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="111" t="s">
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="111"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="111"/>
-      <c r="AA7" s="111"/>
-      <c r="AB7" s="111"/>
-      <c r="AC7" s="111"/>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="109"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="99"/>
-      <c r="C8" s="103" t="s">
+      <c r="B8" s="97"/>
+      <c r="C8" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="103" t="s">
+      <c r="E8" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="109" t="s">
+      <c r="G8" s="106"/>
+      <c r="H8" s="107" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109" t="s">
+      <c r="I8" s="107"/>
+      <c r="J8" s="107" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109" t="s">
+      <c r="K8" s="107"/>
+      <c r="L8" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109" t="s">
+      <c r="M8" s="107"/>
+      <c r="N8" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109" t="s">
+      <c r="O8" s="107"/>
+      <c r="P8" s="107" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="109"/>
-      <c r="R8" s="110" t="s">
+      <c r="Q8" s="107"/>
+      <c r="R8" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="110" t="s">
+      <c r="S8" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="110" t="s">
+      <c r="T8" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="110" t="s">
+      <c r="U8" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="110" t="s">
+      <c r="V8" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="111">
+      <c r="W8" s="109">
         <v>0</v>
       </c>
-      <c r="X8" s="111">
+      <c r="X8" s="109">
         <v>1</v>
       </c>
-      <c r="Y8" s="111">
+      <c r="Y8" s="109">
         <v>2</v>
       </c>
-      <c r="Z8" s="111" t="s">
+      <c r="Z8" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="111" t="s">
+      <c r="AA8" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="111" t="s">
+      <c r="AB8" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="111" t="s">
+      <c r="AC8" s="109" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="99"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="112" t="s">
+      <c r="B9" s="97"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="112" t="s">
+      <c r="J9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="112" t="s">
+      <c r="K9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="112" t="s">
+      <c r="L9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="112" t="s">
+      <c r="M9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="112" t="s">
+      <c r="N9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="112" t="s">
+      <c r="O9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="112" t="s">
+      <c r="P9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="112" t="s">
+      <c r="Q9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="109"/>
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
     </row>
     <row r="10" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="86">
         <v>0</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="116"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="117"/>
-      <c r="Y10" s="117"/>
-      <c r="Z10" s="117"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="117"/>
-      <c r="AC10" s="117"/>
+      <c r="H10" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
     </row>
     <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="113" t="s">
+      <c r="B11" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="86">
         <v>0</v>
       </c>
-      <c r="G11" s="114" t="s">
+      <c r="G11" s="112" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="117"/>
-      <c r="Z11" s="117"/>
-      <c r="AA11" s="117"/>
-      <c r="AB11" s="117"/>
-      <c r="AC11" s="117"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="113"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="113"/>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="114"/>
+      <c r="S11" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" s="114"/>
+      <c r="U11" s="114"/>
+      <c r="V11" s="114"/>
+      <c r="W11" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="115"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="115"/>
+      <c r="AC11" s="115"/>
     </row>
     <row r="12" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="86">
         <v>0</v>
       </c>
-      <c r="G12" s="114" t="s">
+      <c r="G12" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="116"/>
-      <c r="S12" s="116"/>
-      <c r="T12" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="116"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="117"/>
-      <c r="X12" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" s="117"/>
-      <c r="Z12" s="117"/>
-      <c r="AA12" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB12" s="117"/>
-      <c r="AC12" s="117"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="114"/>
+      <c r="S12" s="114"/>
+      <c r="T12" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="114"/>
+      <c r="V12" s="114"/>
+      <c r="W12" s="115"/>
+      <c r="X12" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="115"/>
+      <c r="AA12" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="115"/>
+      <c r="AC12" s="115"/>
     </row>
     <row r="13" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="86">
         <v>0</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="115"/>
-      <c r="P13" s="115"/>
-      <c r="Q13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" s="116"/>
-      <c r="S13" s="116"/>
-      <c r="T13" s="116"/>
-      <c r="U13" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13" s="116"/>
-      <c r="W13" s="117"/>
-      <c r="X13" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="117"/>
-      <c r="Z13" s="117"/>
-      <c r="AA13" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB13" s="117"/>
-      <c r="AC13" s="117"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="114"/>
+      <c r="W13" s="115"/>
+      <c r="X13" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="115"/>
+      <c r="Z13" s="115"/>
+      <c r="AA13" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="115"/>
+      <c r="AC13" s="115"/>
     </row>
     <row r="14" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="111" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="86">
         <v>100</v>
       </c>
-      <c r="G14" s="114" t="s">
+      <c r="G14" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="M14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="116"/>
-      <c r="S14" s="116"/>
-      <c r="T14" s="116"/>
-      <c r="U14" s="116"/>
-      <c r="V14" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="W14" s="117"/>
-      <c r="X14" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14" s="117"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB14" s="117"/>
-      <c r="AC14" s="117"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="113"/>
+      <c r="P14" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="113"/>
+      <c r="R14" s="114"/>
+      <c r="S14" s="114"/>
+      <c r="T14" s="114"/>
+      <c r="U14" s="114"/>
+      <c r="V14" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="115"/>
+      <c r="X14" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" s="115"/>
+      <c r="Z14" s="115"/>
+      <c r="AA14" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="115"/>
+      <c r="AC14" s="115"/>
     </row>
     <row r="15" spans="2:29" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="113" t="s">
+      <c r="B15" s="111" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="86">
         <v>250</v>
       </c>
-      <c r="G15" s="114" t="s">
+      <c r="G15" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
-      <c r="T15" s="116"/>
-      <c r="U15" s="116"/>
-      <c r="V15" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="W15" s="117"/>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z15" s="117"/>
-      <c r="AA15" s="117" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB15" s="117"/>
-      <c r="AC15" s="117"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="114"/>
+      <c r="S15" s="114"/>
+      <c r="T15" s="114"/>
+      <c r="U15" s="114"/>
+      <c r="V15" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="115"/>
+      <c r="X15" s="115"/>
+      <c r="Y15" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="115"/>
+      <c r="AA15" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="115"/>
+      <c r="AC15" s="115"/>
     </row>
     <row r="16" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -3223,94 +3252,90 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="11"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="9"/>
+      <c r="D1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="68" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="69"/>
+      <c r="L4" s="67"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="76"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="71"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="69"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3319,332 +3344,355 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="75" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>1</v>
+      <c r="E6" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="119"/>
+      <c r="G6" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="119"/>
+      <c r="I6" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="11">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>6</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>1</v>
+      <c r="E7" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="67"/>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>1</v>
+      <c r="C8" s="75"/>
+      <c r="D8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="67"/>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="2">
+      <c r="C9" s="75"/>
+      <c r="D9" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="67"/>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="C10" s="75"/>
+      <c r="D10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="67"/>
+      <c r="K10" s="117">
+        <v>100</v>
+      </c>
+      <c r="L10" s="117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10">
+        <v>14</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="D11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="69"/>
+      <c r="I11" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="69"/>
+      <c r="K11" s="2">
+        <v>250</v>
+      </c>
+      <c r="L11" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="83" t="s">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85" t="s">
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="83" t="s">
+      <c r="G14" s="84"/>
+      <c r="H14" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="53" t="s">
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="54"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="52" t="s">
+      <c r="N14" s="52"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C15" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D15" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E15" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F15" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="62" t="s">
+      <c r="G15" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H15" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="56" t="s">
+      <c r="J15" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="72" t="s">
+      <c r="K15" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L15" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M15" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N15" s="61" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="60"/>
-    </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="18">
-        <f>SUM(C16:D16)</f>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="58"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="16">
+        <f>SUM(C17:D17)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="8" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I16" s="18">
-        <f>SUM(J16:K16)</f>
+      <c r="I17" s="16">
+        <f>SUM(J17:K17)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K17" s="17">
         <v>0</v>
       </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="6" t="s">
+      <c r="L17" s="18"/>
+      <c r="M17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="21">
-        <f>C16</f>
+      <c r="N17" s="19">
+        <f>C17</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="46">
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169BC3B6-FEC2-4734-8A43-1CAE9035DCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E203E0C-1D07-48CD-98FA-971466D8E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,11 @@
     <sheet name="WBT-TCs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -563,6 +550,15 @@
   </si>
   <si>
     <t>1, 2, 3, 6, 7, 9, 10, 11, 7, 9, 10, 11, 7, 8, 5</t>
+  </si>
+  <si>
+    <t>Paslaru Gabriel</t>
+  </si>
+  <si>
+    <t>Pintiliciuc Ana-Maria</t>
+  </si>
+  <si>
+    <t>Petrutiu Mihai-Bogdan</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1319,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1349,6 +1344,38 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,51 +1388,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,12 +1583,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1448,9 +1598,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,169 +1605,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2096,7 +2092,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,15 +2102,15 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2132,21 +2128,21 @@
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16" t="s">
+      <c r="N6" s="15"/>
+      <c r="O6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="15" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2155,32 +2151,44 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="O7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="O8" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="P8" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="O9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="15">
+        <v>235</v>
+      </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -2233,342 +2241,349 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="36"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="28" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="I6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="Q6" s="28" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
       <c r="I8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="23">
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="Q9" s="33" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="Q9" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="23" t="s">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="I10" s="37" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="39"/>
-      <c r="Q10" s="33" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="33"/>
-      <c r="T10" s="23">
+      <c r="S10" s="56"/>
+      <c r="T10" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="42"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="42"/>
-      <c r="Q13" s="28" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="Q13" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="42"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="40"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="42"/>
-      <c r="Q15" s="21" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="Q15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="46" t="s">
+      <c r="R15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="46"/>
-      <c r="T15" s="46"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="40"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="42"/>
-      <c r="Q16" s="24" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="Q16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="31" t="s">
+      <c r="R16" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="42"/>
-      <c r="Q17" s="24" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="Q17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="42"/>
-      <c r="Q18" s="24" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="40"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="Q19" s="24" t="s">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-      <c r="Q20" s="24" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="40"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="42"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="43"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="R20:T20"/>
@@ -2585,13 +2600,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2613,602 +2621,617 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="88"/>
-    <col min="2" max="2" width="12.33203125" style="88" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="88" customWidth="1"/>
-    <col min="5" max="6" width="18.21875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" style="88" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="88" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="88" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="88" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="88" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="88" customWidth="1"/>
-    <col min="15" max="15" width="16.109375" style="88" customWidth="1"/>
-    <col min="16" max="16" width="23.109375" style="88" customWidth="1"/>
-    <col min="17" max="17" width="26" style="88" customWidth="1"/>
-    <col min="18" max="18" width="8.77734375" style="88" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="88" customWidth="1"/>
-    <col min="20" max="22" width="8.88671875" style="88"/>
-    <col min="23" max="23" width="2.21875" style="88" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="2.109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.44140625" style="88" customWidth="1"/>
-    <col min="27" max="27" width="2.21875" style="88" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.21875" style="88" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="88"/>
+    <col min="1" max="1" width="8.88671875" style="29"/>
+    <col min="2" max="2" width="12.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="29" customWidth="1"/>
+    <col min="5" max="6" width="18.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="29" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="29" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="29" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="29" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" style="29" customWidth="1"/>
+    <col min="16" max="16" width="23.109375" style="29" customWidth="1"/>
+    <col min="17" max="17" width="26" style="29" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" style="29" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="29" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" style="29"/>
+    <col min="23" max="23" width="2.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.44140625" style="29" customWidth="1"/>
+    <col min="27" max="27" width="2.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="F1" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="91"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="97"/>
-      <c r="U6" s="97"/>
-      <c r="V6" s="97"/>
-      <c r="W6" s="97"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="97"/>
-      <c r="Z6" s="97"/>
-      <c r="AA6" s="97"/>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="97"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
     </row>
     <row r="7" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="97"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="107" t="s">
+      <c r="H7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="108" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="75"/>
+      <c r="R7" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="109" t="s">
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="97"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="107" t="s">
+      <c r="G8" s="77"/>
+      <c r="H8" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107" t="s">
+      <c r="K8" s="75"/>
+      <c r="L8" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107" t="s">
+      <c r="M8" s="75"/>
+      <c r="N8" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107" t="s">
+      <c r="O8" s="75"/>
+      <c r="P8" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="108" t="s">
+      <c r="Q8" s="75"/>
+      <c r="R8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="108" t="s">
+      <c r="S8" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="108" t="s">
+      <c r="T8" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="108" t="s">
+      <c r="U8" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="108" t="s">
+      <c r="V8" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="109">
+      <c r="W8" s="74">
         <v>0</v>
       </c>
-      <c r="X8" s="109">
+      <c r="X8" s="74">
         <v>1</v>
       </c>
-      <c r="Y8" s="109">
+      <c r="Y8" s="74">
         <v>2</v>
       </c>
-      <c r="Z8" s="109" t="s">
+      <c r="Z8" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="109" t="s">
+      <c r="AA8" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="109" t="s">
+      <c r="AB8" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="109" t="s">
+      <c r="AC8" s="74" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="97"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="110" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="110" t="s">
+      <c r="J9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="110" t="s">
+      <c r="K9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="110" t="s">
+      <c r="L9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="110" t="s">
+      <c r="M9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="110" t="s">
+      <c r="O9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="110" t="s">
+      <c r="P9" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="110" t="s">
+      <c r="Q9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="108"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="108"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
     </row>
     <row r="10" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="27">
         <v>0</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
+      <c r="H10" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
     </row>
     <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="27">
         <v>0</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="113"/>
-      <c r="L11" s="113"/>
-      <c r="M11" s="113"/>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" s="115"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="115"/>
-      <c r="AC11" s="115"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
     </row>
     <row r="12" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="27">
         <v>0</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="L12" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="115"/>
-      <c r="X12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y12" s="115"/>
-      <c r="Z12" s="115"/>
-      <c r="AA12" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB12" s="115"/>
-      <c r="AC12" s="115"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
     </row>
     <row r="13" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="27">
         <v>0</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="M13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="V13" s="114"/>
-      <c r="W13" s="115"/>
-      <c r="X13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y13" s="115"/>
-      <c r="Z13" s="115"/>
-      <c r="AA13" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="115"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="V13" s="35"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
     </row>
     <row r="14" spans="2:29" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="27">
         <v>100</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="L14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="M14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="W14" s="115"/>
-      <c r="X14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y14" s="115"/>
-      <c r="Z14" s="115"/>
-      <c r="AA14" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
     </row>
     <row r="15" spans="2:29" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="111" t="s">
+      <c r="B15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="27">
         <v>250</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="L15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="N15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114" t="s">
-        <v>109</v>
-      </c>
-      <c r="W15" s="115"/>
-      <c r="X15" s="115"/>
-      <c r="Y15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z15" s="115"/>
-      <c r="AA15" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB15" s="115"/>
-      <c r="AC15" s="115"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
     </row>
     <row r="16" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="116"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B6:B9"/>
@@ -3225,21 +3248,6 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="R7:V7"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3255,7 +3263,7 @@
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,67 +3283,67 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="66" t="s">
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="79"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="74"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="68" t="s">
+      <c r="B5" s="86"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="69"/>
+      <c r="J5" s="81"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3347,24 +3355,24 @@
       <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="87" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="119"/>
-      <c r="G6" s="118" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="119"/>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="83"/>
+      <c r="I6" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="11">
         <v>0</v>
       </c>
@@ -3376,22 +3384,22 @@
       <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="75"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="66" t="s">
+      <c r="F7" s="79"/>
+      <c r="G7" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="66" t="s">
+      <c r="H7" s="79"/>
+      <c r="I7" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="67"/>
+      <c r="J7" s="79"/>
       <c r="K7" s="10">
         <v>0</v>
       </c>
@@ -3403,22 +3411,22 @@
       <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="66" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="66" t="s">
+      <c r="H8" s="79"/>
+      <c r="I8" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="67"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="10">
         <v>0</v>
       </c>
@@ -3430,22 +3438,22 @@
       <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="66" t="s">
+      <c r="F9" s="79"/>
+      <c r="G9" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="66" t="s">
+      <c r="H9" s="79"/>
+      <c r="I9" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="10">
         <v>0</v>
       </c>
@@ -3457,26 +3465,26 @@
       <c r="B10" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="66" t="s">
+      <c r="F10" s="79"/>
+      <c r="G10" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="66" t="s">
+      <c r="H10" s="79"/>
+      <c r="I10" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="117">
+      <c r="J10" s="79"/>
+      <c r="K10" s="38">
         <v>100</v>
       </c>
-      <c r="L10" s="117">
+      <c r="L10" s="38">
         <v>100</v>
       </c>
     </row>
@@ -3484,22 +3492,22 @@
       <c r="B11" s="10">
         <v>14</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="68" t="s">
+      <c r="E11" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="68" t="s">
+      <c r="F11" s="81"/>
+      <c r="G11" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="68" t="s">
+      <c r="H11" s="81"/>
+      <c r="I11" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="69"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="2">
         <v>250</v>
       </c>
@@ -3527,133 +3535,148 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="81" t="s">
+      <c r="G14" s="118"/>
+      <c r="H14" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="51" t="s">
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="52"/>
+      <c r="N14" s="106"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="60" t="s">
+      <c r="G15" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="70" t="s">
+      <c r="K15" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L15" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="49" t="s">
+      <c r="M15" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="61" t="s">
+      <c r="N15" s="90" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="53"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="58"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="110"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="16">
-        <f>SUM(C17:D17)</f>
-        <v>0</v>
+      <c r="B17" s="15">
+        <v>6</v>
       </c>
       <c r="C17" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
+      <c r="E17" s="119">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0</v>
+      </c>
       <c r="G17" s="8" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <f>SUM(J17:K17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="16">
         <v>0</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f>C17</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L15:L16"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3670,27 +3693,15 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3699,12 +3710,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3852,15 +3860,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3884,10 +3896,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E203E0C-1D07-48CD-98FA-971466D8E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A729EDCE-8A5B-45C4-9D40-ED9BDDFCD27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="121">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>Petrutiu Mihai-Bogdan</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3(F) - 6(F) - 7(F) - 8 - 5</t>
+  </si>
+  <si>
+    <t>drumul nu va fi niciodata parcurs, deoarece daca lista nu este empty nu are cum sa nu gaseasca macar un element iteratorul in for</t>
   </si>
 </sst>
 </file>
@@ -1376,6 +1385,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1386,6 +1396,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,9 +1413,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1427,12 +1440,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,12 +1485,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1481,17 +1503,68 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,118 +1578,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2091,7 +2100,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -2102,12 +2111,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -2226,10 +2235,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:T23"/>
+  <dimension ref="B1:U23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2237,77 +2246,78 @@
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
     <col min="20" max="20" width="28.33203125" customWidth="1"/>
+    <col min="21" max="21" width="111.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="Q6" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="I8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
       <c r="T8" s="22">
         <v>6</v>
       </c>
@@ -2316,19 +2326,19 @@
       <c r="B9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="I9" s="25"/>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
       <c r="T9" s="22" t="s">
         <v>78</v>
       </c>
@@ -2337,29 +2347,29 @@
       <c r="B10" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="Q10" s="56" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="51"/>
+      <c r="Q10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="56"/>
+      <c r="S10" s="44"/>
       <c r="T10" s="22">
         <v>6</v>
       </c>
@@ -2368,222 +2378,227 @@
       <c r="B11" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="Q13" s="39" t="s">
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="Q13" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
       <c r="Q15" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
       <c r="Q16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+    </row>
+    <row r="17" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I17" s="52"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
       <c r="Q17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+    </row>
+    <row r="18" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
       <c r="Q18" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+    </row>
+    <row r="19" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="54"/>
       <c r="Q19" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
+    </row>
+    <row r="20" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="54"/>
       <c r="Q20" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+    </row>
+    <row r="21" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="54"/>
+      <c r="Q21" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="R21" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+    </row>
+    <row r="23" spans="9:21" x14ac:dyDescent="0.3">
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
+  <mergeCells count="24">
+    <mergeCell ref="R21:T21"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R19:T19"/>
     <mergeCell ref="R20:T20"/>
@@ -2600,6 +2615,13 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,7 +2637,7 @@
   </sheetPr>
   <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="96" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="96" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2653,23 +2675,23 @@
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B5" s="30"/>
@@ -2677,160 +2699,160 @@
       <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
     </row>
     <row r="7" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="77" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76" t="s">
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="74" t="s">
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="75" t="s">
+      <c r="G8" s="62"/>
+      <c r="H8" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75" t="s">
+      <c r="I8" s="61"/>
+      <c r="J8" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75" t="s">
+      <c r="K8" s="61"/>
+      <c r="L8" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75" t="s">
+      <c r="M8" s="61"/>
+      <c r="N8" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75" t="s">
+      <c r="O8" s="61"/>
+      <c r="P8" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="76" t="s">
+      <c r="Q8" s="61"/>
+      <c r="R8" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="76" t="s">
+      <c r="S8" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="T8" s="76" t="s">
+      <c r="T8" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="U8" s="76" t="s">
+      <c r="U8" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="76" t="s">
+      <c r="V8" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="74">
+      <c r="W8" s="64">
         <v>0</v>
       </c>
-      <c r="X8" s="74">
+      <c r="X8" s="64">
         <v>1</v>
       </c>
-      <c r="Y8" s="74">
+      <c r="Y8" s="64">
         <v>2</v>
       </c>
-      <c r="Z8" s="74" t="s">
+      <c r="Z8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AA8" s="74" t="s">
+      <c r="AA8" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="AB8" s="74" t="s">
+      <c r="AB8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AC8" s="74" t="s">
+      <c r="AC8" s="64" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="77"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="31" t="s">
         <v>25</v>
       </c>
@@ -2861,18 +2883,18 @@
       <c r="Q9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
     </row>
     <row r="10" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
@@ -3217,21 +3239,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B6:B9"/>
@@ -3248,6 +3255,21 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W7:AC7"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:Q7"/>
+    <mergeCell ref="R7:V7"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3262,8 +3284,8 @@
   </sheetPr>
   <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="102" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3283,67 +3305,67 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="9"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="92" t="s">
+      <c r="D4" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="78" t="s">
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="101"/>
     </row>
     <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="86"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="80" t="s">
+      <c r="B5" s="109"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="102" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="80" t="s">
+      <c r="F5" s="103"/>
+      <c r="G5" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80" t="s">
+      <c r="H5" s="103"/>
+      <c r="I5" s="102" t="s">
         <v>92</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3355,24 +3377,24 @@
       <c r="B6" s="10">
         <v>9</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="110" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="116" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="82" t="s">
+      <c r="F6" s="117"/>
+      <c r="G6" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="94" t="s">
+      <c r="H6" s="117"/>
+      <c r="I6" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="95"/>
+      <c r="J6" s="119"/>
       <c r="K6" s="11">
         <v>0</v>
       </c>
@@ -3384,22 +3406,22 @@
       <c r="B7" s="10">
         <v>10</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="79"/>
-      <c r="G7" s="78" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="78" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="79"/>
+      <c r="J7" s="101"/>
       <c r="K7" s="10">
         <v>0</v>
       </c>
@@ -3411,22 +3433,22 @@
       <c r="B8" s="10">
         <v>11</v>
       </c>
-      <c r="C8" s="87"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="78" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="79"/>
-      <c r="I8" s="78" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="79"/>
+      <c r="J8" s="101"/>
       <c r="K8" s="10">
         <v>0</v>
       </c>
@@ -3438,22 +3460,22 @@
       <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="78" t="s">
+      <c r="F9" s="101"/>
+      <c r="G9" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="78" t="s">
+      <c r="H9" s="101"/>
+      <c r="I9" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="J9" s="101"/>
       <c r="K9" s="10">
         <v>0</v>
       </c>
@@ -3465,22 +3487,22 @@
       <c r="B10" s="10">
         <v>13</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="101"/>
+      <c r="G10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="79"/>
-      <c r="I10" s="78" t="s">
+      <c r="H10" s="101"/>
+      <c r="I10" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="79"/>
+      <c r="J10" s="101"/>
       <c r="K10" s="38">
         <v>100</v>
       </c>
@@ -3492,22 +3514,22 @@
       <c r="B11" s="10">
         <v>14</v>
       </c>
-      <c r="C11" s="88"/>
+      <c r="C11" s="111"/>
       <c r="D11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="80" t="s">
+      <c r="F11" s="103"/>
+      <c r="G11" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="81"/>
-      <c r="I11" s="80" t="s">
+      <c r="H11" s="103"/>
+      <c r="I11" s="102" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="81"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="2">
         <v>250</v>
       </c>
@@ -3535,83 +3557,83 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="117" t="s">
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="98" t="s">
+      <c r="G14" s="99"/>
+      <c r="H14" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="105" t="s">
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="106"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="113" t="s">
+      <c r="H15" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="115" t="s">
+      <c r="K15" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="103" t="s">
+      <c r="M15" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="91" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="107"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="110"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="88"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="15">
@@ -3623,7 +3645,7 @@
       <c r="D17" s="13">
         <v>0</v>
       </c>
-      <c r="E17" s="119">
+      <c r="E17" s="39">
         <v>1</v>
       </c>
       <c r="F17" s="14">
@@ -3656,27 +3678,15 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3693,15 +3703,27 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3710,9 +3732,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3860,19 +3885,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3896,9 +3917,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>